--- a/1125/研究对比.xlsx
+++ b/1125/研究对比.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3A687850-AC58-4E1E-910C-179B83F5059C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BFB9432F-E302-473D-AEEB-5B47AEFB53C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Related work</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,26 @@
   </si>
   <si>
     <t>Segment analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convolutional neural networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdaBoost-Linear discriminant analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regression Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级联随机森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,42 +450,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="2" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -473,13 +496,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -490,94 +513,101 @@
       <c r="H2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3">
+      <c r="D3" s="2"/>
+      <c r="E3">
         <v>15</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>92.3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>75</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4">
+      <c r="D4" s="2"/>
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>84.6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>75</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>96.2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>84.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6">
+      <c r="D6" s="2"/>
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>92.3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>98.1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>86.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7">
+      <c r="D7" s="2"/>
+      <c r="E7">
         <v>30</v>
-      </c>
-      <c r="E7" s="1">
-        <v>96.2</v>
       </c>
       <c r="F7" s="1">
         <v>96.2</v>
@@ -585,213 +615,231 @@
       <c r="G7" s="1">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="1">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>97.8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>98.6</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>94.4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>98.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9">
+      <c r="D9" s="2"/>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>96.7</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>98.4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>92.9</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>96.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10">
+      <c r="D10" s="2"/>
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>95.7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>96.4</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>94.6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>96.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11">
+      <c r="D11" s="2"/>
+      <c r="E11">
         <v>30</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>96.7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>97.1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>96.5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>94.4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>86.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>87.1</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13">
+      <c r="D13" s="2"/>
+      <c r="E13">
         <v>15</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>81</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>85.9</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14">
+      <c r="D14" s="2"/>
+      <c r="E14">
         <v>30</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>82.5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>74.2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>90.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>81.64</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>82.14</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>81.47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>87.83</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>74.77</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>89.95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
